--- a/resources/tools/wordlist_E-J/lessons/lesson-17.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-17.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,1744 +436,1744 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to make tea, coffee, etc.</t>
+          <t>guest; visitor; client; customer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>いれる</t>
+          <t>お客さん|おきゃくさん</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to be born</t>
+          <t>man</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>生まれる|うまれる</t>
+          <t>男|おとこ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to lock</t>
+          <t>hot water</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>かぎをかける</t>
+          <t>お湯|おゆ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to be sufficient; to be enough</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>足りる|たりる</t>
+          <t>女|おんな</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to get used to...</t>
+          <t>lock; key</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>慣れる|なれる</t>
+          <t>かぎ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to pray</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>お祈りする|おいのりする</t>
+          <t>火事|かじ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to put makeup on</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>化粧する|けしょうする</t>
+          <t>紙|かみ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>to get a full-time job (at...)</t>
+          <t>salary</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>就職する|しゅうしょくする</t>
+          <t>給料|きゅうりょう</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>to wear small items (necktie, watch, etc.)</t>
+          <t>contact lenses</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>する</t>
+          <t>コンタクト</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>to get a divorce</t>
+          <t>the lowest; the worst</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>離婚する|りこんする</t>
+          <t>最低|さいてい</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>shopping mall</t>
+          <t>salaryman; company employee</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ショッピングモール</t>
+          <t>サラリーマン</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>spoon</t>
+          <t>overtime work</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>スプーン</t>
+          <t>残業|ざんぎょう</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lottery</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>宝くじ|たからくじ</t>
+          <t>首相|しゅしょう</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>shopping mall</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>違い|ちがい</t>
+          <t>ショッピングモール</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>zoo</t>
+          <t>spoon</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>動物園|どうぶつえん</t>
+          <t>スプーン</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>news</t>
+          <t>lottery</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ニュース</t>
+          <t>宝くじ|たからくじ</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>panda</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>パンダ</t>
+          <t>違い|ちがい</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>heater</t>
+          <t>zoo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ヒーター</t>
+          <t>動物園|どうぶつえん</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>beard</t>
+          <t>news</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ひげ</t>
+          <t>ニュース</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>secret</t>
+          <t>panda</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>秘密|ひみつ</t>
+          <t>パンダ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>boots</t>
+          <t>heater</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ブーツ</t>
+          <t>ヒーター</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dorm</t>
+          <t>beard</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>寮|りょう</t>
+          <t>ひげ</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>travel agency</t>
+          <t>secret</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>旅行会社|りょこうがいしゃ</t>
+          <t>秘密|ひみつ</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I would like to have a hair cut (permanent).</t>
+          <t>boots</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>カット（パーマ）お願いします。|カット（パーマ）おねがいします。</t>
+          <t>ブーツ</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Please don't make it too short.</t>
+          <t>dorm</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>あまり短くじゃないでください。|あまりみじかくじゃないでください。</t>
+          <t>寮|りょう</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Please don't shave.</t>
+          <t>travel agency</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>そらないでください。</t>
+          <t>旅行会社|りょこうがいしゃ</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Please cut off about 3 centimeters.</t>
+          <t>dangerous</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>３センチぐらい切ってください。|３センチぐらいきってください。</t>
+          <t>危ない|あぶない</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Please cut the back all the same length.</t>
+          <t>envious</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>後ろをそろえてください。|うしろをそろえてください。</t>
+          <t>うらやましい</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Please dye my hair red.</t>
+          <t>a little; a few</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>赤にそめてください。|あかにそめてください。</t>
+          <t>少ない|すくない</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>I want my hair to be like Bob Marley's.</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ボブ・マーリーみたいな髪形にしたいんですが。|ボブ・マーリーみたいなかみがたにしたいんですが。</t>
+          <t>強い|つよい</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>guest; visitor; client; customer</t>
+          <t>to choose; to select</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>お客さん|おきゃくさん</t>
+          <t>選ぶ|えらぶ</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>to boil water</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>男|おとこ</t>
+          <t>お湯を沸かす|おゆをわかす</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>hot water</t>
+          <t>to comb one's hair</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>お湯|おゆ</t>
+          <t>髪をとかす|かみをとかす</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>to get crowded</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>女|おんな</t>
+          <t>込む|こむ</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lock; key</t>
+          <t>to win a lottery</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>かぎ</t>
+          <t>宝くじに当たる|たからくじにあたる</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>to take off (clothes)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>火事|かじ</t>
+          <t>脱ぐ|ぬぐ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>to shave one's beard</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>紙|かみ</t>
+          <t>ひげをそる</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>salary</t>
+          <t>to make tea, coffee, etc.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>給料|きゅうりょう</t>
+          <t>いれる</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>contact lenses</t>
+          <t>to be born</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>コンタクト</t>
+          <t>生まれる|うまれる</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>the lowest; the worst</t>
+          <t>to lock</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>最低|さいてい</t>
+          <t>かぎをかける</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>salaryman; company employee</t>
+          <t>to be sufficient; to be enough</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>サラリーマン</t>
+          <t>足りる|たりる</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>overtime work</t>
+          <t>to get used to...</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>残業|ざんぎょう</t>
+          <t>慣れる|なれる</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>to pray</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>首相|しゅしょう</t>
+          <t>お祈りする|おいのりする</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>dangerous</t>
+          <t>to put makeup on</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>危ない|あぶない</t>
+          <t>化粧する|けしょうする</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>envious</t>
+          <t>to get a full-time job (at...)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>うらやましい</t>
+          <t>就職する|しゅうしょくする</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>a little; a few</t>
+          <t>to wear small items (necktie, watch, etc.)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>少ない|すくない</t>
+          <t>する</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>to get a divorce</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>強い|つよい</t>
+          <t>離婚する|りこんする</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>to choose; to select</t>
+          <t>Congratulations!</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>選ぶ|えらぶ</t>
+          <t>おめでとうございます</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>to boil water</t>
+          <t>I wonder... (casual)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>お湯を沸かす|おゆをわかす</t>
+          <t>～かな（あ）</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>to comb one's hair</t>
+          <t>oneself</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>髪をとかす|かみをとかす</t>
+          <t>自分|じぶん</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>to get crowded</t>
+          <t>very</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>込む|こむ</t>
+          <t>ずいぶん</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>to win a lottery</t>
+          <t>I see. (casual)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>宝くじに当たる|たからくじにあたる</t>
+          <t>そうか</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>to take off (clothes)</t>
+          <t>moreover,...</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>脱ぐ|ぬぐ</t>
+          <t>それに</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>to shave one's beard</t>
+          <t>for example</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ひげをそる</t>
+          <t>例えば|たとえば</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>shampoo</t>
+          <t>compared with...</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>シャンプー</t>
+          <t>～に比べて|～にくらべて</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>cut</t>
+          <t>according to...</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>カット</t>
+          <t>～によると</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>blow-dry</t>
+          <t>before</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ブロー</t>
+          <t>前|まえ</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>permanent</t>
+          <t>after all</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>パーマ</t>
+          <t>やっぱり</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>I would like to have a hair cut (permanent).</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>セット</t>
+          <t>カット（パーマ）お願いします。|カット（パーマ）おねがいします。</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>hair style</t>
+          <t>Please don't make it too short.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>髪形|かみがた</t>
+          <t>あまり短くじゃないでください。|あまりみじかくじゃないでください。</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sideburns</t>
+          <t>Please don't shave.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>もみあげ</t>
+          <t>そらないでください。</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>parting (of the hair)</t>
+          <t>Please cut off about 3 centimeters.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>分け目|わけめ</t>
+          <t>３センチぐらい切ってください。|３センチぐらいきってください。</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bangs</t>
+          <t>Please cut the back all the same length.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>前髪|まえがみ</t>
+          <t>後ろをそろえてください。|うしろをそろえてください。</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>side</t>
+          <t>Please dye my hair red.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>横|よこ</t>
+          <t>赤にそめてください。|あかにそめてください。</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>I want my hair to be like Bob Marley's.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>後ろ|うしろ</t>
+          <t>ボブ・マーリーみたいな髪形にしたいんですが。|ボブ・マーリーみたいなかみがたにしたいんですが。</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>to cut</t>
+          <t>shampoo</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>切る|きる</t>
+          <t>シャンプー</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>to shave</t>
+          <t>cut</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>そる</t>
+          <t>カット</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>to crop</t>
+          <t>blow-dry</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>刈る|かる</t>
+          <t>ブロー</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>to dye</t>
+          <t>permanent</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>そめる</t>
+          <t>パーマ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>to make hair even; to trim</t>
+          <t>set</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>そろえる</t>
+          <t>セット</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>to have one's hair permed</t>
+          <t>hair style</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>パーマをかける</t>
+          <t>髪形|かみがた</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Congratulations!</t>
+          <t>sideburns</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>おめでとうございます</t>
+          <t>もみあげ</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>I wonder... (casual)</t>
+          <t>parting (of the hair)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>～かな（あ）</t>
+          <t>分け目|わけめ</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>oneself</t>
+          <t>bangs</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>自分|じぶん</t>
+          <t>前髪|まえがみ</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>very</t>
+          <t>side</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ずいぶん</t>
+          <t>横|よこ</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>I see. (casual)</t>
+          <t>back</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>そうか</t>
+          <t>後ろ|うしろ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>moreover,...</t>
+          <t>to cut</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>それに</t>
+          <t>切る|きる</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>for example</t>
+          <t>to shave</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>例えば|たとえば</t>
+          <t>そる</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>compared with...</t>
+          <t>to crop</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>～に比べて|～にくらべて</t>
+          <t>刈る|かる</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>according to...</t>
+          <t>to dye</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>～によると</t>
+          <t>そめる</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>to make hair even; to trim</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>前|まえ</t>
+          <t>そろえる</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>after all</t>
+          <t>to have one's hair permed</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>やっぱり</t>
+          <t>パーマをかける</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>to make public; to give a presentation</t>
+          <t>twenty-five years old</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>発表する|はっぴょうする</t>
+          <t>二十五歳|にじゅうごさい</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>pronunciation</t>
+          <t>year-end gift</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>発音|はつおん</t>
+          <t>お歳暮|おせいぼ</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>departure</t>
+          <t>twenty years old</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>出発|しゅっぱつ</t>
+          <t>二十歳|はたち</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>invention</t>
+          <t>to learn</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>発明|はつめい</t>
+          <t>習う|ならう</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cover page</t>
+          <t>calligraphy</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>表紙|ひょうし</t>
+          <t>習字|しゅうじ</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>expression</t>
+          <t>practice</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>表現|ひょうげん</t>
+          <t>練習|れんしゅう</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>to express</t>
+          <t>habit; custom</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>表す|あらわす</t>
+          <t>習慣|しゅうかん</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>the front</t>
+          <t>mainly</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>表|おもて</t>
+          <t>主に|おもに</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>piece of work</t>
+          <t>husband</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>作品|さくひん</t>
+          <t>ご主人|ごしゅじん</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>elegant</t>
+          <t>housewife</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>上品な|じょうひんな</t>
+          <t>主婦|しゅふ</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>magic</t>
+          <t>subject of a sentence</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>手品|てじな</t>
+          <t>主語|しゅご</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>merchandise article</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>品物|しなもの</t>
+          <t>持ち主|もちぬし</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>photograph</t>
+          <t>to get married</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>写真|しゃしん</t>
+          <t>結婚する|けっこんする</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>result</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>真ん中|まんなか</t>
+          <t>結果|けっか</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>right above...</t>
+          <t>conclusion</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>～の真上|～のまうえ</t>
+          <t>結論|けつろん</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>midnight</t>
+          <t>to tie a knot</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>真夜中|まよなか</t>
+          <t>結ぶ|むすぶ</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>to walk</t>
+          <t>divorce</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>歩く|あるく</t>
+          <t>離婚|りこん</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sidewalk</t>
+          <t>fiancée</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>歩道|ほどう</t>
+          <t>婚約者|こんやくしゃ</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>to stroll</t>
+          <t>newlywed</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>散歩する|さんぽする</t>
+          <t>新婚|しんこん</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>one step</t>
+          <t>unmarried</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>一歩|いっぽ</t>
+          <t>未婚|みこん</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>to collect</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>進歩|しんぽ</t>
+          <t>集める|あつめる</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>realm; field</t>
+          <t>(magazine) feature</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>分野|ぶんや</t>
+          <t>特集|とくしゅう</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mr./Ms. Ono</t>
+          <t>to concentrate</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>小野さん|おのさん</t>
+          <t>集中する|しゅうちゅうする</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>to make public; to give a presentation</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>長野|ながの</t>
+          <t>発表する|はっぴょうする</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>baseball</t>
+          <t>pronunciation</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>野球|やきゅう</t>
+          <t>発音|はつおん</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>vegetable</t>
+          <t>departure</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>野菜|やさい</t>
+          <t>出発|しゅっぱつ</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>twenty-five years old</t>
+          <t>invention</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>二十五歳|にじゅうごさい</t>
+          <t>発明|はつめい</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>year-end gift</t>
+          <t>cover page</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>お歳暮|おせいぼ</t>
+          <t>表紙|ひょうし</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>twenty years old</t>
+          <t>expression</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>二十歳|はたち</t>
+          <t>表現|ひょうげん</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>to learn</t>
+          <t>to express</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>習う|ならう</t>
+          <t>表す|あらわす</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>calligraphy</t>
+          <t>the front</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>習字|しゅうじ</t>
+          <t>表|おもて</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>practice</t>
+          <t>piece of work</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>練習|れんしゅう</t>
+          <t>作品|さくひん</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>habit; custom</t>
+          <t>elegant</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>習慣|しゅうかん</t>
+          <t>上品な|じょうひんな</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>mainly</t>
+          <t>magic</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>主に|おもに</t>
+          <t>手品|てじな</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>husband</t>
+          <t>merchandise article</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ご主人|ごしゅじん</t>
+          <t>品物|しなもの</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>character</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>主婦|しゅふ</t>
+          <t>文字|もじ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>subject of a sentence</t>
+          <t>deficit</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>主語|しゅご</t>
+          <t>赤字|あかじ</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>family name</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>持ち主|もちぬし</t>
+          <t>名字|みょうじ</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>uppercase letters</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>文字|もじ</t>
+          <t>大文字|おおもじ</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>deficit</t>
+          <t>kanji</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>赤字|あかじ</t>
+          <t>漢字|かんじ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>family name</t>
+          <t>activity</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>名字|みょうじ</t>
+          <t>活動|かつどう</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>uppercase letters</t>
+          <t>life; living</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>大文字|おおもじ</t>
+          <t>生活|せいかつ</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>kanji</t>
+          <t>active</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>漢字|かんじ</t>
+          <t>活発な|かっぱつな</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>activity</t>
+          <t>conjugation</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>活動|かつどう</t>
+          <t>活用|かつよう</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>life; living</t>
+          <t>liveliness</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>生活|せいかつ</t>
+          <t>活気|かっき</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>photograph</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>活発な|かっぱつな</t>
+          <t>写真|しゃしん</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>conjugation</t>
+          <t>to copy</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>活用|かつよう</t>
+          <t>写す|うつす</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>liveliness</t>
+          <t>sketch</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>活気|かっき</t>
+          <t>写生|しゃせい</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>photograph</t>
+          <t>to describe</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>写真|しゃしん</t>
+          <t>描写する|びょうしゃする</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>to copy</t>
+          <t>photograph</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>写す|うつす</t>
+          <t>写真|しゃしん</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>sketch</t>
+          <t>center</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>写生|しゃせい</t>
+          <t>真ん中|まんなか</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>to describe</t>
+          <t>right above...</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>描写する|びょうしゃする</t>
+          <t>～の真上|～のまうえ</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>to get married</t>
+          <t>midnight</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>結婚する|けっこんする</t>
+          <t>真夜中|まよなか</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>result</t>
+          <t>to walk</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>結果|けっか</t>
+          <t>歩く|あるく</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>conclusion</t>
+          <t>sidewalk</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>結論|けつろん</t>
+          <t>歩道|ほどう</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>to tie a knot</t>
+          <t>to stroll</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>結ぶ|むすぶ</t>
+          <t>散歩する|さんぽする</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>divorce</t>
+          <t>one step</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>離婚|りこん</t>
+          <t>一歩|いっぽ</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>fiancée</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>婚約者|こんやくしゃ</t>
+          <t>進歩|しんぽ</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>newlywed</t>
+          <t>realm; field</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>新婚|しんこん</t>
+          <t>分野|ぶんや</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>unmarried</t>
+          <t>Mr./Ms. Ono</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>未婚|みこん</t>
+          <t>小野さん|おのさん</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>to collect</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>集める|あつめる</t>
+          <t>長野|ながの</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>(magazine) feature</t>
+          <t>baseball</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>特集|とくしゅう</t>
+          <t>野球|やきゅう</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>to concentrate</t>
+          <t>vegetable</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>集中する|しゅうちゅうする</t>
+          <t>野菜|やさい</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-17.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-17.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>あまり短くじゃないでください。|あまりみじかくじゃないでください。</t>
+          <t>あまり短くしないでください。|あまりみじかくしないでください。</t>
         </is>
       </c>
     </row>
@@ -2174,6 +2174,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-17.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-17.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,166 +2008,154 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>photograph</t>
+          <t>center</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>写真|しゃしん</t>
+          <t>真ん中|まんなか</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right above...</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>真ん中|まんなか</t>
+          <t>～の真上|～のまうえ</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>right above...</t>
+          <t>midnight</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>～の真上|～のまうえ</t>
+          <t>真夜中|まよなか</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>midnight</t>
+          <t>to walk</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>真夜中|まよなか</t>
+          <t>歩く|あるく</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>to walk</t>
+          <t>sidewalk</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>歩く|あるく</t>
+          <t>歩道|ほどう</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>sidewalk</t>
+          <t>to stroll</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>歩道|ほどう</t>
+          <t>散歩する|さんぽする</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>to stroll</t>
+          <t>one step</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>散歩する|さんぽする</t>
+          <t>一歩|いっぽ</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>one step</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>一歩|いっぽ</t>
+          <t>進歩|しんぽ</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>realm; field</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>進歩|しんぽ</t>
+          <t>分野|ぶんや</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>realm; field</t>
+          <t>Mr./Ms. Ono</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>分野|ぶんや</t>
+          <t>小野さん|おのさん</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mr./Ms. Ono</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>小野さん|おのさん</t>
+          <t>長野|ながの</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>baseball</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>長野|ながの</t>
+          <t>野球|やきゅう</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>baseball</t>
+          <t>vegetable</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
-        <is>
-          <t>野球|やきゅう</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>vegetable</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
         <is>
           <t>野菜|やさい</t>
         </is>
